--- a/(GT) Challenges.xlsx
+++ b/(GT) Challenges.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="6600" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="6600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="5" r:id="rId1"/>
     <sheet name=" Open coding" sheetId="3" r:id="rId2"/>
+    <sheet name="Sub-categories" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">' Open coding'!$C$1:$C$62</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -360,13 +361,82 @@
   </si>
   <si>
     <t>Codes</t>
+  </si>
+  <si>
+    <t>Sub-categories of Category 1:</t>
+  </si>
+  <si>
+    <t>COD05 - High cost of test maintenance</t>
+  </si>
+  <si>
+    <t>COD12 - Context heterogeneity</t>
+  </si>
+  <si>
+    <t>COD08 - Different execution scenarios that can be difficult to reproduce manually</t>
+  </si>
+  <si>
+    <t>COD17 - Continuous change and adaptation</t>
+  </si>
+  <si>
+    <t>COD22 - Costly time to test many combinations</t>
+  </si>
+  <si>
+    <t>COD23 - Costly to test many combinations</t>
+  </si>
+  <si>
+    <t>COD13 - Uncertainties in change that affect validity</t>
+  </si>
+  <si>
+    <t>COD21 - Large number of GUI and context events</t>
+  </si>
+  <si>
+    <t>Sub-categories of Category 2</t>
+  </si>
+  <si>
+    <t>COD06 - Inconsistent and inaccurate context data</t>
+  </si>
+  <si>
+    <t>COD09 - Fragmented ecosystem</t>
+  </si>
+  <si>
+    <t>COD10 - Explosion of scenario combinations</t>
+  </si>
+  <si>
+    <t>COD03 - How to identify an application’s context events</t>
+  </si>
+  <si>
+    <t>Sub-categories of Category 3 :</t>
+  </si>
+  <si>
+    <t>COD19 - Need for a context modeling language</t>
+  </si>
+  <si>
+    <t>COD20 - Limited testing platforms</t>
+  </si>
+  <si>
+    <t>COD02 - Difficulty in detecting incorrect configurations at runtime</t>
+  </si>
+  <si>
+    <t>COD07 - Dependence on dynamic context monitoring at runtime for validation and verification</t>
+  </si>
+  <si>
+    <t>COD15 - Limited methodologies that do not consider context</t>
+  </si>
+  <si>
+    <t>COD16 - Limited methodologies that do not consider adaptation</t>
+  </si>
+  <si>
+    <t>COD18 - Need for an adaptation modeling language</t>
+  </si>
+  <si>
+    <t>COD11 - Lack of runtime approaches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -398,8 +468,22 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +502,14 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -455,11 +545,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,6 +586,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,7 +1017,7 @@
   </sheetPr>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1601,4 +1711,138 @@
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="82.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>